--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PPRiFUfICaWHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\PPRiFUfICaWHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E8F92-5031-4E5C-A383-AB9DE5FAA438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
+    <workbookView xWindow="4470" yWindow="1620" windowWidth="23580" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="PPRiFUfICaWHR" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Source:</t>
   </si>
@@ -62,46 +74,100 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>We do not apply this potential to Agriculture, due to its lack of large, heat-generating,</t>
-  </si>
-  <si>
     <t>stationary equipment compared to other industries.</t>
   </si>
   <si>
-    <t>cement and other carbonates</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum systems</t>
-  </si>
-  <si>
-    <t>iron and steel</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>mining</t>
-  </si>
-  <si>
-    <t>waste management</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>other industries</t>
-  </si>
-  <si>
     <t>PPRiFUfICaWHR Potential Perc Reduction in Fuel Use from Increased Cogen and Waste Heat Recovery</t>
   </si>
   <si>
-    <t>Pot Perc Red in Fuel Use (dimensionless)</t>
+    <t>agriculture and forestry 01T03</t>
+  </si>
+  <si>
+    <t>coal mining 05</t>
+  </si>
+  <si>
+    <t>oil and gas extraction 06</t>
+  </si>
+  <si>
+    <t>other mining and quarrying 07T08</t>
+  </si>
+  <si>
+    <t>food beverage and tobacco 10T12</t>
+  </si>
+  <si>
+    <t>textiles apparel and leather 13T15</t>
+  </si>
+  <si>
+    <t>wood products 16</t>
+  </si>
+  <si>
+    <t>pulp paper and printing 17T18</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19</t>
+  </si>
+  <si>
+    <t>chemicals 20</t>
+  </si>
+  <si>
+    <t>rubber and plastic products 22</t>
+  </si>
+  <si>
+    <t>glass and glass products 231</t>
+  </si>
+  <si>
+    <t>cement and other nonmetallic minerals 239</t>
+  </si>
+  <si>
+    <t>iron and steel 241</t>
+  </si>
+  <si>
+    <t>other metals 242</t>
+  </si>
+  <si>
+    <t>metal products except machinery and vehicles 25</t>
+  </si>
+  <si>
+    <t>computers and electronics 26</t>
+  </si>
+  <si>
+    <t>appliances and electrical equipment 27</t>
+  </si>
+  <si>
+    <t>other machinery 28</t>
+  </si>
+  <si>
+    <t>road vehicles 29</t>
+  </si>
+  <si>
+    <t>nonroad vehicles 30</t>
+  </si>
+  <si>
+    <t>other manufacturing 31T33</t>
+  </si>
+  <si>
+    <t>energy pipelines and gas processing 352T353</t>
+  </si>
+  <si>
+    <t>water and waste 36T39</t>
+  </si>
+  <si>
+    <t>construction 41T43</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless</t>
+  </si>
+  <si>
+    <t>Pot Perc Red in Fuel Use</t>
+  </si>
+  <si>
+    <t>We do not apply this potential to non-manufacturing indutries due to their lack of large, heat-generating,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -138,7 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +246,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -194,14 +262,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -297,6 +362,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -332,6 +414,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,23 +606,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.1328125" customWidth="1"/>
-    <col min="3" max="3" width="29.86328125" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,44 +630,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -576,18 +675,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.59765625" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -595,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -603,7 +702,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -611,7 +710,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -620,7 +719,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -628,7 +727,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -643,96 +742,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.73046875" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="B11" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\PPRiFUfICaWHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\eps-eu\InputData\indst\PPRiFUfICaWHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E8F92-5031-4E5C-A383-AB9DE5FAA438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD78CF37-2349-42E0-A13A-10902176911B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1620" windowWidth="23580" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14130" yWindow="-17025" windowWidth="18390" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Source:</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>We do not apply this potential to non-manufacturing indutries due to their lack of large, heat-generating,</t>
+  </si>
+  <si>
+    <t>The EU EPS uses values from the US EPS.</t>
   </si>
 </sst>
 </file>
@@ -607,22 +610,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.1328125" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,39 +635,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -680,13 +690,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.59765625" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -694,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -702,7 +712,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -710,7 +720,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -719,7 +729,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -727,7 +737,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -750,13 +760,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.86328125" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
@@ -764,7 +774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -772,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -780,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -788,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -796,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -805,7 +815,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -814,7 +824,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -823,7 +833,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -832,7 +842,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -841,7 +851,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -850,7 +860,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -859,7 +869,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -868,7 +878,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -877,7 +887,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -886,7 +896,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -895,7 +905,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -904,7 +914,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -913,7 +923,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -922,7 +932,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -931,7 +941,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -940,7 +950,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -949,7 +959,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -958,7 +968,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -966,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -974,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>39</v>
       </c>

--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\Documents\Energy Policy Simulator\Models\eps-eu\InputData\indst\PPRiFUfICaWHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\PPRiFUfICaWHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD78CF37-2349-42E0-A13A-10902176911B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E8F92-5031-4E5C-A383-AB9DE5FAA438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14130" yWindow="-17025" windowWidth="18390" windowHeight="16365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="1620" windowWidth="23580" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Source:</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>We do not apply this potential to non-manufacturing indutries due to their lack of large, heat-generating,</t>
-  </si>
-  <si>
-    <t>The EU EPS uses values from the US EPS.</t>
   </si>
 </sst>
 </file>
@@ -610,24 +607,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.1328125" customWidth="1"/>
-    <col min="3" max="3" width="29.86328125" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,44 +630,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -690,13 +680,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.59765625" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -704,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -712,7 +702,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -720,7 +710,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -729,7 +719,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -737,7 +727,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -760,13 +750,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.86328125" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
@@ -774,7 +764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -782,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -790,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -798,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -806,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -815,7 +805,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -824,7 +814,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -833,7 +823,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -842,7 +832,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -851,7 +841,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -860,7 +850,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -869,7 +859,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -878,7 +868,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -887,7 +877,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -896,7 +886,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -905,7 +895,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -914,7 +904,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -923,7 +913,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -932,7 +922,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -941,7 +931,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -950,7 +940,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -959,7 +949,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -968,7 +958,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -976,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -984,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>

--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\PPRiFUfICaWHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/indst/PPRiFUfICaWHR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E8F92-5031-4E5C-A383-AB9DE5FAA438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E8F92-5031-4E5C-A383-AB9DE5FAA438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1620" windowWidth="23580" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -262,7 +262,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -287,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,9 +326,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,26 +361,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,26 +396,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -611,18 +576,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,37 +595,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -680,13 +645,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -694,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -702,7 +667,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -710,7 +675,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -719,7 +684,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -727,7 +692,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -750,53 +715,53 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -805,7 +770,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -814,7 +779,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -823,7 +788,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -832,7 +797,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -841,7 +806,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -850,7 +815,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -859,7 +824,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -868,7 +833,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -877,7 +842,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -886,7 +851,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -895,7 +860,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -904,7 +869,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -913,7 +878,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -922,7 +887,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -931,7 +896,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -940,7 +905,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -949,7 +914,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -958,31 +923,312 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E052941E-D793-4328-9B98-CFCD41F6745E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF03300B-220D-4704-A3FB-520896B5AC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A167AF3E-3A0D-4B47-90C1-0376D9959C0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/indst/PPRiFUfICaWHR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\PPRiFUfICaWHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E8F92-5031-4E5C-A383-AB9DE5FAA438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E8F92-5031-4E5C-A383-AB9DE5FAA438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="1620" windowWidth="23580" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -262,6 +262,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -286,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,9 +327,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,9 +362,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +414,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,18 +611,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.1796875" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,37 +630,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -645,13 +680,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -659,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -667,7 +702,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -675,7 +710,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -684,7 +719,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -692,7 +727,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -715,53 +750,53 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -770,7 +805,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -779,7 +814,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -788,7 +823,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -797,7 +832,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -806,7 +841,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -815,7 +850,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -824,7 +859,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -833,7 +868,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -842,7 +877,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -851,7 +886,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -860,7 +895,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -869,7 +904,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -878,7 +913,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -887,7 +922,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -896,7 +931,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -905,7 +940,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -914,7 +949,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -923,312 +958,31 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
-    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E052941E-D793-4328-9B98-CFCD41F6745E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF03300B-220D-4704-A3FB-520896B5AC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A167AF3E-3A0D-4B47-90C1-0376D9959C0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>